--- a/2025/Conferences/ULTRASONICS2025/Project/NewDocs/events to be organized.xlsx
+++ b/2025/Conferences/ULTRASONICS2025/Project/NewDocs/events to be organized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseluiscapelo/Dropbox/1 research/2 projects/2025/Proyecto MAKIS  SMART II educaçao/Makis budgets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepL\2025\Conferences\ULTRASONICS2025\Project\NewDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AC2832-A8B8-D646-97EB-3D829020AFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDBCB4D-926E-4143-B7BD-38F13BE0DACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="5580" windowWidth="33360" windowHeight="16940" xr2:uid="{EBEE0AEA-2BB5-6C4B-9757-8EB76707B0E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EBEE0AEA-2BB5-6C4B-9757-8EB76707B0E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,13 +260,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{880073FF-D075-0F4D-A194-BC87F16727A2}"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,35 +600,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73ADE-FC80-1C47-84C6-AB330CE7B392}">
   <dimension ref="C1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="33" style="5" customWidth="1"/>
     <col min="4" max="4" width="47.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="50.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="42.296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="33.19921875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="50.19921875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="3:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="8">
         <v>2026</v>
@@ -640,7 +646,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -648,7 +654,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="3:8" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,11 +670,11 @@
       <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
@@ -688,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="50" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
@@ -708,14 +714,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="50" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -728,7 +734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
@@ -738,17 +744,17 @@
       <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="50" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
@@ -758,7 +764,7 @@
       <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -768,7 +774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
@@ -777,14 +783,14 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
